--- a/test.xlsx
+++ b/test.xlsx
@@ -85,7 +85,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>12.545323371887207</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -85,7 +85,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>3.0133118629455566</v>
       </c>
     </row>
   </sheetData>
